--- a/Data/Org.xlsx
+++ b/Data/Org.xlsx
@@ -59,9 +59,6 @@
     <t>type: beach, plain, mountain, desert...</t>
   </si>
   <si>
-    <t>traffic congestion</t>
-  </si>
-  <si>
     <t>public transport</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>weed</t>
   </si>
   <si>
-    <t>gay rights</t>
-  </si>
-  <si>
     <t>sustainable</t>
   </si>
   <si>
@@ -213,6 +207,12 @@
   </si>
   <si>
     <t>living arrangments</t>
+  </si>
+  <si>
+    <t>gay rights/ equality</t>
+  </si>
+  <si>
+    <t>commute</t>
   </si>
 </sst>
 </file>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,192 +574,192 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>35</v>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>29</v>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>36</v>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>40</v>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -789,38 +789,38 @@
     </row>
     <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" s="4"/>
     </row>
@@ -851,49 +851,49 @@
     </row>
     <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53" s="4"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>11</v>
+      <c r="D54" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B57" s="4"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D58" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D59" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D60" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Org.xlsx
+++ b/Data/Org.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22170" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16620" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>bars/ clubs</t>
   </si>
@@ -62,9 +62,6 @@
     <t>public transport</t>
   </si>
   <si>
-    <t>walkability / bikability</t>
-  </si>
-  <si>
     <t xml:space="preserve"> age</t>
   </si>
   <si>
@@ -213,6 +210,12 @@
   </si>
   <si>
     <t>commute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">walkability </t>
+  </si>
+  <si>
+    <t>bikability</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,192 +577,192 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -779,7 +782,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -789,23 +792,23 @@
     </row>
     <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>46</v>
+      <c r="D43" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -820,7 +823,7 @@
     </row>
     <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" s="4"/>
     </row>
@@ -829,71 +832,76 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D59" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D58" s="1" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D60" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D59" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D60" s="1" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D61" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Org.xlsx
+++ b/Data/Org.xlsx
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
-  <si>
-    <t>bars/ clubs</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>muesums/ theaters</t>
   </si>
   <si>
-    <t>parks</t>
-  </si>
-  <si>
     <t>festivals</t>
   </si>
   <si>
@@ -167,9 +161,6 @@
     <t>age demographics</t>
   </si>
   <si>
-    <t>food scene?</t>
-  </si>
-  <si>
     <t>median salaries</t>
   </si>
   <si>
@@ -216,6 +207,12 @@
   </si>
   <si>
     <t>bikability</t>
+  </si>
+  <si>
+    <t>restaurants</t>
+  </si>
+  <si>
+    <t>bars</t>
   </si>
 </sst>
 </file>
@@ -560,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,224 +574,224 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>35</v>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>47</v>
+      <c r="D35" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="4"/>
+    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="s">
@@ -803,105 +800,100 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="1" t="s">
-        <v>44</v>
+      <c r="E44" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D55" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="4"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D59" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D60" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D61" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>59</v>
+      <c r="B61" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Org.xlsx
+++ b/Data/Org.xlsx
@@ -9,12 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16620" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16620" windowHeight="7248"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Structure" sheetId="1" r:id="rId1"/>
+    <sheet name="Demographics" sheetId="3" r:id="rId2"/>
+    <sheet name="Health" sheetId="2" r:id="rId3"/>
+    <sheet name="Education" sheetId="4" r:id="rId4"/>
+    <sheet name="Values" sheetId="11" r:id="rId5"/>
+    <sheet name="Safety" sheetId="6" r:id="rId6"/>
+    <sheet name="Economy" sheetId="7" r:id="rId7"/>
+    <sheet name="Environment" sheetId="8" r:id="rId8"/>
+    <sheet name="COL" sheetId="9" r:id="rId9"/>
+    <sheet name="Entertainment" sheetId="10" r:id="rId10"/>
+    <sheet name="Transportation" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="99">
   <si>
     <t>muesums/ theaters</t>
   </si>
@@ -125,9 +136,6 @@
     <t xml:space="preserve"> access to gyms</t>
   </si>
   <si>
-    <t>quality of schools</t>
-  </si>
-  <si>
     <t>high school dropout rate</t>
   </si>
   <si>
@@ -161,9 +169,6 @@
     <t>age demographics</t>
   </si>
   <si>
-    <t>median salaries</t>
-  </si>
-  <si>
     <t xml:space="preserve">poverty </t>
   </si>
   <si>
@@ -213,13 +218,127 @@
   </si>
   <si>
     <t>bars</t>
+  </si>
+  <si>
+    <t>Math and Reading scores</t>
+  </si>
+  <si>
+    <t>median household income</t>
+  </si>
+  <si>
+    <t>% diabetes</t>
+  </si>
+  <si>
+    <t>% food insecure</t>
+  </si>
+  <si>
+    <t>infant mortality</t>
+  </si>
+  <si>
+    <t>age adjusted death rate</t>
+  </si>
+  <si>
+    <t>% limited acess to healthy food</t>
+  </si>
+  <si>
+    <t>% fair or poor health</t>
+  </si>
+  <si>
+    <t>mentally unhealthy days</t>
+  </si>
+  <si>
+    <t>low birth weight</t>
+  </si>
+  <si>
+    <t>% adult obesity</t>
+  </si>
+  <si>
+    <t>food environment index</t>
+  </si>
+  <si>
+    <t>exercise opportunities</t>
+  </si>
+  <si>
+    <t>income inequality ratio</t>
+  </si>
+  <si>
+    <t>Drug Overdose Mortality Rate</t>
+  </si>
+  <si>
+    <t>% Insufficient Sleep</t>
+  </si>
+  <si>
+    <t>Average Reading Grade Performance</t>
+  </si>
+  <si>
+    <t>Average Math Grade Performance</t>
+  </si>
+  <si>
+    <t>Median Household Income</t>
+  </si>
+  <si>
+    <t>Homicide Rate</t>
+  </si>
+  <si>
+    <t>Suicide Rate (Age-Adjusted)</t>
+  </si>
+  <si>
+    <t>Firearm Fatalities Rate</t>
+  </si>
+  <si>
+    <t>Average Traffic Volume per Meter of Major Roadways</t>
+  </si>
+  <si>
+    <t>% Homeowners</t>
+  </si>
+  <si>
+    <t>% Enrolled in Free or Reduced Lunch</t>
+  </si>
+  <si>
+    <t>% Disconnected Youth</t>
+  </si>
+  <si>
+    <t>Violent Crime Rate</t>
+  </si>
+  <si>
+    <t>Average Daily PM2.5</t>
+  </si>
+  <si>
+    <t>% Severe Housing Problems</t>
+  </si>
+  <si>
+    <t>% Long Commute - Drives Alone</t>
+  </si>
+  <si>
+    <t>% Excessive Drinking</t>
+  </si>
+  <si>
+    <t>High School Graduation Rate</t>
+  </si>
+  <si>
+    <t>Social Association Rate</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>physically healthy days</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +357,13 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -269,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -277,6 +403,8 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,22 +685,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
@@ -583,321 +711,831 @@
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="D22" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D28" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D29" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D30" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D37" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D41" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D50" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D54" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D55" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E56" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C57" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="1" t="s">
+    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E44" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D54" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D58" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D59" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D60" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="54.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.5546875" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>